--- a/public/downloads/FAX_1.xlsx
+++ b/public/downloads/FAX_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>FAX MAIL</t>
   </si>
@@ -52,7 +52,7 @@
     <t>いつも大変お世話になっております。</t>
   </si>
   <si>
-    <t>入居施設名の吉●　昌●様の</t>
+    <t>入居施設名の吉●　●様の</t>
   </si>
   <si>
     <t>検査開始時間ですが下記のようになります。</t>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t>検査内容：</t>
-  </si>
-  <si>
-    <t>CT()</t>
-  </si>
-  <si>
-    <t>MRI()</t>
-  </si>
-  <si>
-    <t>エコー()</t>
-  </si>
-  <si>
-    <t>RI()</t>
   </si>
   <si>
     <t>検査場所：検査クリニック名</t>
@@ -1858,9 +1846,7 @@
     <row r="33" spans="1:30" customHeight="1" ht="19.5">
       <c r="A33"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -1892,9 +1878,7 @@
     <row r="34" spans="1:30" customHeight="1" ht="19.5">
       <c r="A34"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -1926,9 +1910,7 @@
     <row r="35" spans="1:30" customHeight="1" ht="19.5">
       <c r="A35"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -1960,9 +1942,7 @@
     <row r="36" spans="1:30" customHeight="1" ht="19.5">
       <c r="A36"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -2027,7 +2007,7 @@
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -2060,7 +2040,7 @@
     <row r="39" spans="1:30" customHeight="1" ht="22.5">
       <c r="A39"/>
       <c r="B39" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -2094,7 +2074,7 @@
     <row r="40" spans="1:30" customHeight="1" ht="22.5">
       <c r="A40"/>
       <c r="B40" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -2160,7 +2140,7 @@
     <row r="42" spans="1:30" customHeight="1" ht="22.5">
       <c r="A42"/>
       <c r="B42" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -2219,7 +2199,7 @@
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="16"/>
       <c r="AC43"/>
@@ -3424,9 +3404,7 @@
     <row r="33" spans="1:30" customHeight="1" ht="19.5">
       <c r="A33"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -3458,9 +3436,7 @@
     <row r="34" spans="1:30" customHeight="1" ht="19.5">
       <c r="A34"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -3492,9 +3468,7 @@
     <row r="35" spans="1:30" customHeight="1" ht="19.5">
       <c r="A35"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -3526,9 +3500,7 @@
     <row r="36" spans="1:30" customHeight="1" ht="19.5">
       <c r="A36"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -3593,7 +3565,7 @@
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -3626,7 +3598,7 @@
     <row r="39" spans="1:30" customHeight="1" ht="22.5">
       <c r="A39"/>
       <c r="B39" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -3660,7 +3632,7 @@
     <row r="40" spans="1:30" customHeight="1" ht="22.5">
       <c r="A40"/>
       <c r="B40" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3726,7 +3698,7 @@
     <row r="42" spans="1:30" customHeight="1" ht="22.5">
       <c r="A42"/>
       <c r="B42" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -3785,7 +3757,7 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43"/>
@@ -3985,7 +3957,7 @@
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
       <c r="X2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -4127,7 +4099,7 @@
     <row r="7" spans="1:30">
       <c r="A7" s="2"/>
       <c r="B7" s="38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -4225,7 +4197,7 @@
     <row r="10" spans="1:30" customHeight="1" ht="22.5">
       <c r="A10"/>
       <c r="B10" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -4259,7 +4231,7 @@
     <row r="11" spans="1:30">
       <c r="A11" s="2"/>
       <c r="B11" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -4293,7 +4265,7 @@
     <row r="12" spans="1:30">
       <c r="A12" s="2"/>
       <c r="B12" s="33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4327,7 +4299,7 @@
     <row r="13" spans="1:30">
       <c r="A13" s="2"/>
       <c r="B13" s="33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4790,7 +4762,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
       <c r="C27" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -4958,7 +4930,7 @@
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -5152,7 +5124,7 @@
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -5185,7 +5157,7 @@
     <row r="39" spans="1:30" customHeight="1" ht="22.5">
       <c r="A39"/>
       <c r="B39" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -5219,7 +5191,7 @@
     <row r="40" spans="1:30" customHeight="1" ht="22.5">
       <c r="A40"/>
       <c r="B40" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -5285,7 +5257,7 @@
     <row r="42" spans="1:30" customHeight="1" ht="22.5">
       <c r="A42"/>
       <c r="B42" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -5344,7 +5316,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="12"/>
       <c r="AC43"/>
@@ -5545,7 +5517,7 @@
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
       <c r="X2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -5687,7 +5659,7 @@
     <row r="7" spans="1:30">
       <c r="A7" s="2"/>
       <c r="B7" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -5785,7 +5757,7 @@
     <row r="10" spans="1:30" customHeight="1" ht="22.5">
       <c r="A10"/>
       <c r="B10" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -5819,7 +5791,7 @@
     <row r="11" spans="1:30">
       <c r="A11" s="2"/>
       <c r="B11" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -5853,7 +5825,7 @@
     <row r="12" spans="1:30">
       <c r="A12" s="2"/>
       <c r="B12" s="33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -5887,7 +5859,7 @@
     <row r="13" spans="1:30">
       <c r="A13" s="2"/>
       <c r="B13" s="33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -6350,7 +6322,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
       <c r="C27" s="36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
@@ -6518,7 +6490,7 @@
       <c r="A32"/>
       <c r="B32" s="7"/>
       <c r="C32" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -6712,7 +6684,7 @@
       <c r="A38"/>
       <c r="B38" s="9"/>
       <c r="C38" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -6745,7 +6717,7 @@
     <row r="39" spans="1:30" customHeight="1" ht="22.5">
       <c r="A39"/>
       <c r="B39" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -6779,7 +6751,7 @@
     <row r="40" spans="1:30" customHeight="1" ht="22.5">
       <c r="A40"/>
       <c r="B40" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -6845,7 +6817,7 @@
     <row r="42" spans="1:30" customHeight="1" ht="22.5">
       <c r="A42"/>
       <c r="B42" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -6904,7 +6876,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="13"/>
       <c r="AC43"/>
